--- a/biology/Microbiologie/Mixta/Mixta.xlsx
+++ b/biology/Microbiologie/Mixta/Mixta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mixta est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom tiré du néolatin mixta (mélangé) fait référence aux modes de vie diversifiés des espèces constitutives de ce genre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mixta est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom tiré du néolatin mixta (mélangé) fait référence aux modes de vie diversifiés des espèces constitutives de ce genre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (25 octobre 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (25 octobre 2022) :
 Mixta calida (Popp et al. 2010) Palmer et al. 2018 – espèce type
 Mixta gaviniae (Popp et al. 2010) Palmer et al. 2018
 Mixta intestinalis (Prakash et al. 2015) Palmer et al. 2018
